--- a/excle/dbconf.xlsx
+++ b/excle/dbconf.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>dbname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,53 +62,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logdb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大链接数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxopenconns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxidleconns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲置连接数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamelogdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_statisticsdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读协程数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写协程数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamedb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!@Zjy0822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utf8mb4</t>
   </si>
   <si>
     <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大链接数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxopenconns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxidleconns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闲置连接数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zjy0822</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.2</t>
-  </si>
-  <si>
-    <t>127.0.0.3</t>
-  </si>
-  <si>
-    <t>gamedb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logindb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,12 +197,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,18 +491,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E11" activeCellId="1" sqref="B4:B7 E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,13 +522,22 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,13 +554,22 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -529,27 +586,36 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>3306</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>2000</v>
@@ -557,22 +623,31 @@
       <c r="G4">
         <v>1000</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>3306</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>2000</v>
@@ -580,28 +655,78 @@
       <c r="G5">
         <v>1000</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>3306</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>2000</v>
       </c>
       <c r="G6">
         <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>3306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +742,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -630,7 +755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excle/dbconf.xlsx
+++ b/excle/dbconf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>dbname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountdb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +166,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,14 +194,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -491,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" activeCellId="1" sqref="B4:B7 E11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +629,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F4">
@@ -729,10 +744,45 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>3306</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
